--- a/biology/Botanique/Brugmansia_versicolor/Brugmansia_versicolor.xlsx
+++ b/biology/Botanique/Brugmansia_versicolor/Brugmansia_versicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brugmansia versicolor est une espèce de plantes de la famille des Solanaceae originaire de l'Équateur.
 Elle est cultivée dans le monde entier pour la beauté et l'abondance de ses fleurs toxiques en forme de trompette, d'où son nom de trompette des anges, aussi attribué aux espèces voisines.
